--- a/input_data/admin_data/CHL/gpinter_CHL_2015.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2015.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,57 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +444,112 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J80"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +837,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>1297225.41493162</v>
+        <v>3511322.2800362599</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F2">
-        <v>30705.438372734701</v>
+        <v>47844.173957349398</v>
       </c>
       <c r="G2">
-        <v>0.99994795630843802</v>
+        <v>0.99995434193217503</v>
       </c>
       <c r="H2">
-        <v>3706165.4358064001</v>
+        <v>6752234.5381643102</v>
       </c>
       <c r="I2">
-        <v>67059.069977171006</v>
+        <v>84673.847245818994</v>
       </c>
       <c r="J2">
-        <v>120.700619571592</v>
+        <v>141.12971297578599</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +869,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F3">
-        <v>104437.00771224601</v>
+        <v>122191.78385198201</v>
       </c>
       <c r="G3">
-        <v>0.99943101400060697</v>
+        <v>0.99971319674385895</v>
       </c>
       <c r="H3">
-        <v>3813197.9759778501</v>
+        <v>6882971.0222999603</v>
       </c>
       <c r="I3">
-        <v>143933.73245908401</v>
+        <v>161109.917596457</v>
       </c>
       <c r="J3">
-        <v>36.511942074061501</v>
+        <v>56.3292457587632</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +899,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>184525.676384291</v>
+        <v>200739.99108066701</v>
       </c>
       <c r="G4">
-        <v>0.99832146333344995</v>
+        <v>0.99925436697903702</v>
       </c>
       <c r="H4">
-        <v>3924387.8015390201</v>
+        <v>7017408.2443940304</v>
       </c>
       <c r="I4">
-        <v>227381.91359429099</v>
+        <v>241817.610916973</v>
       </c>
       <c r="J4">
-        <v>21.267434854790299</v>
+        <v>34.957699293580703</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +929,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F5">
-        <v>271407.95280827198</v>
+        <v>283630.82045170403</v>
       </c>
       <c r="G5">
-        <v>0.99656863062621903</v>
+        <v>0.99856568735457796</v>
       </c>
       <c r="H5">
-        <v>4039919.2355372901</v>
+        <v>7155685.6042609103</v>
       </c>
       <c r="I5">
-        <v>317851.05753176397</v>
+        <v>326938.75363695802</v>
       </c>
       <c r="J5">
-        <v>14.8850436906363</v>
+        <v>25.228871787857699</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +959,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F6">
-        <v>365542.128025944</v>
+        <v>371005.77775700903</v>
       </c>
       <c r="G6">
-        <v>0.99411839295839999</v>
+        <v>0.99763458867561094</v>
       </c>
       <c r="H6">
-        <v>4159985.9509568298</v>
+        <v>7297951.1636489099</v>
       </c>
       <c r="I6">
-        <v>415810.042174873</v>
+        <v>416614.26957</v>
       </c>
       <c r="J6">
-        <v>11.3803187977873</v>
+        <v>19.670721053914999</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +989,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F7">
-        <v>467407.49127110699</v>
+        <v>463005.06542291102</v>
       </c>
       <c r="G7">
-        <v>0.99091301294203105</v>
+        <v>0.99644810040610998</v>
       </c>
       <c r="H7">
-        <v>4284791.8145828899</v>
+        <v>7444362.5869271904</v>
       </c>
       <c r="I7">
-        <v>521748.11148122698</v>
+        <v>510983.34249099903</v>
       </c>
       <c r="J7">
-        <v>9.1671440757837903</v>
+        <v>16.078361000494599</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1019,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F8">
-        <v>577502.95477721305</v>
+        <v>559766.69040879398</v>
       </c>
       <c r="G8">
-        <v>0.98689098172466705</v>
+        <v>0.99499285562440398</v>
       </c>
       <c r="H8">
-        <v>4414551.9422760503</v>
+        <v>7595088.2226758003</v>
       </c>
       <c r="I8">
-        <v>636173.138818932</v>
+        <v>610182.46616335295</v>
       </c>
       <c r="J8">
-        <v>7.6442066759278902</v>
+        <v>13.568310427919799</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1049,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9">
-        <v>696344.9256974</v>
+        <v>661425.45473383903</v>
       </c>
       <c r="G9">
-        <v>0.98198687537972296</v>
+        <v>0.99325509868414097</v>
       </c>
       <c r="H9">
-        <v>4549494.0423995201</v>
+        <v>7750308.3505982999</v>
       </c>
       <c r="I9">
-        <v>759609.04065456695</v>
+        <v>714344.37212847103</v>
       </c>
       <c r="J9">
-        <v>6.5333915341497297</v>
+        <v>11.717584037821901</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1079,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F10">
-        <v>824464.22446146095</v>
+        <v>768111.81895757304</v>
       </c>
       <c r="G10">
-        <v>0.97613123123406298</v>
+        <v>0.991220695928832</v>
       </c>
       <c r="H10">
-        <v>4689860.1535752602</v>
+        <v>7910216.6228362499</v>
       </c>
       <c r="I10">
-        <v>892592.117020151</v>
+        <v>823596.82573211496</v>
       </c>
       <c r="J10">
-        <v>5.6883731451642596</v>
+        <v>10.298261825435</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1109,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F11">
-        <v>962401.80154484604</v>
+        <v>879950.62920366705</v>
       </c>
       <c r="G11">
-        <v>0.969250452406065</v>
+        <v>0.98887514983522795</v>
       </c>
       <c r="H11">
-        <v>4835908.9242119901</v>
+        <v>8075021.7343968097</v>
       </c>
       <c r="I11">
-        <v>1035666.04270519</v>
+        <v>938061.28125356999</v>
       </c>
       <c r="J11">
-        <v>5.0248336156991797</v>
+        <v>9.1766759024929598</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1139,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F12">
-        <v>1110702.94657643</v>
+        <v>997059.69904278102</v>
       </c>
       <c r="G12">
-        <v>0.96126675095538305</v>
+        <v>0.98620361698680004</v>
       </c>
       <c r="H12">
-        <v>4987918.6394722704</v>
+        <v>8244949.3642335497</v>
       </c>
       <c r="I12">
-        <v>1189375.16877664</v>
+        <v>1057851.38809633</v>
       </c>
       <c r="J12">
-        <v>4.4907764536384303</v>
+        <v>8.2692634875815898</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1169,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F13">
-        <v>1269909.6127531701</v>
+        <v>1119548.23893993</v>
       </c>
       <c r="G13">
-        <v>0.95209814266967996</v>
+        <v>0.98319093030147098</v>
       </c>
       <c r="H13">
-        <v>5146191.2840845799</v>
+        <v>8420244.4368222598</v>
       </c>
       <c r="I13">
-        <v>1354255.7156198299</v>
+        <v>1183071.34181882</v>
       </c>
       <c r="J13">
-        <v>4.0524075354683102</v>
+        <v>7.5211090902122901</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1199,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F14">
-        <v>1440550.39317669</v>
+        <v>1247515.1283043099</v>
       </c>
       <c r="G14">
-        <v>0.94165850974211196</v>
+        <v>0.97982162595551203</v>
       </c>
       <c r="H14">
-        <v>5311058.0479308804</v>
+        <v>8601173.7641973495</v>
       </c>
       <c r="I14">
-        <v>1530824.34355868</v>
+        <v>1313814.0767554599</v>
       </c>
       <c r="J14">
-        <v>3.6868255863087098</v>
+        <v>6.8946448576447699</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1229,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F15">
-        <v>1623127.58137715</v>
+        <v>1381047.0288438799</v>
       </c>
       <c r="G15">
-        <v>0.92985775155515205</v>
+        <v>0.97607997545471603</v>
       </c>
       <c r="H15">
-        <v>5482886.8526750701</v>
+        <v>8788029.1407984309</v>
       </c>
       <c r="I15">
-        <v>1719563.4727171599</v>
+        <v>1450159.3014896801</v>
       </c>
       <c r="J15">
-        <v>3.3779765161917101</v>
+        <v>6.3633091105921098</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1259,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="F16">
-        <v>1818100.6236024201</v>
+        <v>1520216.34346923</v>
       </c>
       <c r="G16">
-        <v>0.91660204863009198</v>
+        <v>0.97195002330041103</v>
       </c>
       <c r="H16">
-        <v>5662092.7279111603</v>
+        <v>8981130.9786749706</v>
       </c>
       <c r="I16">
-        <v>1920902.5884074001</v>
+        <v>1592171.38528969</v>
       </c>
       <c r="J16">
-        <v>3.11429007526116</v>
+        <v>5.90779793761424</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1289,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F17">
-        <v>2025865.1241993399</v>
+        <v>1665079.03317858</v>
       </c>
       <c r="G17">
-        <v>0.90179427068882601</v>
+        <v>0.967415630674755</v>
       </c>
       <c r="H17">
-        <v>5849152.2348863501</v>
+        <v>9180832.5893070102</v>
       </c>
       <c r="I17">
-        <v>2135194.61171964</v>
+        <v>1739897.11350599</v>
       </c>
       <c r="J17">
-        <v>2.8872367488916799</v>
+        <v>5.5137518438275599</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1319,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F18">
-        <v>2246726.39929925</v>
+        <v>1815672.31627334</v>
       </c>
       <c r="G18">
-        <v>0.88533456686909895</v>
+        <v>0.96246052551850603</v>
       </c>
       <c r="H18">
-        <v>6044623.6887372304</v>
+        <v>9387525.2414125893</v>
       </c>
       <c r="I18">
-        <v>2362686.2420946802</v>
+        <v>1893363.3443600901</v>
       </c>
       <c r="J18">
-        <v>2.6904137907590902</v>
+        <v>5.1702750310587096</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1349,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F19">
-        <v>2480866.3964549601</v>
+        <v>1972012.2914450599</v>
       </c>
       <c r="G19">
-        <v>0.86712118456175902</v>
+        <v>0.957068359282086</v>
       </c>
       <c r="H19">
-        <v>6249175.7691062596</v>
+        <v>9601644.1527569499</v>
       </c>
       <c r="I19">
-        <v>2603481.00393904</v>
+        <v>2052574.6202994101</v>
       </c>
       <c r="J19">
-        <v>2.5189489357572898</v>
+        <v>4.8689575589415002</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1379,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F20">
-        <v>2728302.6319265198</v>
+        <v>2134091.5509522301</v>
       </c>
       <c r="G20">
-        <v>0.84705157311280199</v>
+        <v>0.951222770479345</v>
       </c>
       <c r="H20">
-        <v>6463628.4023513896</v>
+        <v>9823675.6095939297</v>
       </c>
       <c r="I20">
-        <v>2857493.5899585001</v>
+        <v>2217510.8166787401</v>
       </c>
       <c r="J20">
-        <v>2.3691024326679102</v>
+        <v>4.6032118937027899</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1409,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F21">
-        <v>2988837.6975050098</v>
+        <v>2301876.8854541802</v>
       </c>
       <c r="G21">
-        <v>0.82502383948171898</v>
+        <v>0.944907454937714</v>
       </c>
       <c r="H21">
-        <v>6689011.8281259397</v>
+        <v>10054165.4518035</v>
       </c>
       <c r="I21">
-        <v>3124394.0736531098</v>
+        <v>2388124.9532404598</v>
       </c>
       <c r="J21">
-        <v>2.2379976783984401</v>
+        <v>4.3678119865301497</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1439,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F22">
-        <v>3261997.97755006</v>
+        <v>2475307.2327305502</v>
       </c>
       <c r="G22">
-        <v>0.80093863395236398</v>
+        <v>0.93810624228110795</v>
       </c>
       <c r="H22">
-        <v>6926653.0117574604</v>
+        <v>10293729.217383601</v>
       </c>
       <c r="I22">
-        <v>3403540.84984372</v>
+        <v>2564341.3547265599</v>
       </c>
       <c r="J22">
-        <v>2.12343878182284</v>
+        <v>4.1585662907906702</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1469,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F23">
-        <v>3546960.7659374299</v>
+        <v>2654292.0952743799</v>
       </c>
       <c r="G23">
-        <v>0.77470155278923303</v>
+        <v>0.93080317765127896</v>
       </c>
       <c r="H23">
-        <v>7178303.8804655904</v>
+        <v>10543064.309727401</v>
       </c>
       <c r="I23">
-        <v>3693902.1720828898</v>
+        <v>2746054.4349062699</v>
       </c>
       <c r="J23">
-        <v>2.0237900428448699</v>
+        <v>3.9720814180541302</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1499,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F24">
-        <v>3842470.59057474</v>
+        <v>2838710.7566601499</v>
       </c>
       <c r="G24">
-        <v>0.74622614574305202</v>
+        <v>0.92298260689216904</v>
       </c>
       <c r="H24">
-        <v>7446334.7811104096</v>
+        <v>10802964.6388881</v>
       </c>
       <c r="I24">
-        <v>3993968.8365538302</v>
+        <v>2933128.5051752101</v>
       </c>
       <c r="J24">
-        <v>1.9379028688926501</v>
+        <v>3.8055883691363301</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1529,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F25">
-        <v>4146749.6386647099</v>
+        <v>3028412.7786481399</v>
       </c>
       <c r="G25">
-        <v>0.71543759665527096</v>
+        <v>0.91462926227936703</v>
       </c>
       <c r="H25">
-        <v>7734031.94315679</v>
+        <v>11074338.2986713</v>
       </c>
       <c r="I25">
-        <v>4301667.13407405</v>
+        <v>3125399.1936277701</v>
       </c>
       <c r="J25">
-        <v>1.8650829244775</v>
+        <v>3.6568126963242999</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1559,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F26">
-        <v>4457417.0643547103</v>
+        <v>3223220.4828136601</v>
       </c>
       <c r="G26">
-        <v>0.68227707509471602</v>
+        <v>0.90572834420813997</v>
       </c>
       <c r="H26">
-        <v>8046065.10761886</v>
+        <v>11358228.9809942</v>
       </c>
       <c r="I26">
-        <v>4614297.0942386501</v>
+        <v>3322677.3308193199</v>
       </c>
       <c r="J26">
-        <v>1.8050958641411501</v>
+        <v>3.5238759003787599</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1589,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F27">
-        <v>4771455.9982415996</v>
+        <v>3422934.4465566301</v>
       </c>
       <c r="G27">
-        <v>0.646706564055338</v>
+        <v>0.89626559181508703</v>
       </c>
       <c r="H27">
-        <v>8389241.9089568909</v>
+        <v>11655842.005074801</v>
       </c>
       <c r="I27">
-        <v>4928560.3500801902</v>
+        <v>3524756.5578372502</v>
       </c>
       <c r="J27">
-        <v>1.7582142457246901</v>
+        <v>3.4052191729234602</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1619,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F28">
-        <v>5085327.4264036901</v>
+        <v>3627343.5267717601</v>
       </c>
       <c r="G28">
-        <v>0.60871347285198696</v>
+        <v>0.886227331932542</v>
       </c>
       <c r="H28">
-        <v>8773762.0821654107</v>
+        <v>11968576.0607378</v>
       </c>
       <c r="I28">
-        <v>5240843.5679599103</v>
+        <v>3731426.5071906899</v>
       </c>
       <c r="J28">
-        <v>1.72530917805034</v>
+        <v>3.2995430326361999</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1649,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F29">
-        <v>5395489.9653159901</v>
+        <v>3836241.6481025</v>
       </c>
       <c r="G29">
-        <v>0.56831306512303303</v>
+        <v>0.87560049050472499</v>
       </c>
       <c r="H29">
-        <v>9215376.8964410909</v>
+        <v>12298062.042879701</v>
       </c>
       <c r="I29">
-        <v>5548203.8931489997</v>
+        <v>3942494.3026821502</v>
       </c>
       <c r="J29">
-        <v>1.7079777658156401</v>
+        <v>3.20575791907233</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1679,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F30">
-        <v>5700040.3352751499</v>
+        <v>4049454.6873776298</v>
       </c>
       <c r="G30">
-        <v>0.52554329026905</v>
+        <v>0.86437254277375997</v>
       </c>
       <c r="H30">
-        <v>9739258.7540542502</v>
+        <v>12646210.6987212</v>
       </c>
       <c r="I30">
-        <v>5851347.08555126</v>
+        <v>4157818.4873463898</v>
       </c>
       <c r="J30">
-        <v>1.7086297957897001</v>
+        <v>3.1229416489435402</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1709,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F31">
-        <v>6003618.2354518799</v>
+        <v>4266882.4608696299</v>
       </c>
       <c r="G31">
-        <v>0.48043665715656397</v>
+        <v>0.85253136684130304</v>
       </c>
       <c r="H31">
-        <v>10387244.0321381</v>
+        <v>13015271.2296506</v>
       </c>
       <c r="I31">
-        <v>6163727.0355632501</v>
+        <v>4377361.5879194001</v>
       </c>
       <c r="J31">
-        <v>1.7301639819135299</v>
+        <v>3.0502999201430798</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1739,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F32">
-        <v>6332773.0051315296</v>
+        <v>4488563.4159671497</v>
       </c>
       <c r="G32">
-        <v>0.43292196183363801</v>
+        <v>0.84006494753024497</v>
       </c>
       <c r="H32">
-        <v>11231947.431453099</v>
+        <v>13407903.486092901</v>
       </c>
       <c r="I32">
-        <v>6541881.37369949</v>
+        <v>4601270.7995223999</v>
       </c>
       <c r="J32">
-        <v>1.77362230137598</v>
+        <v>2.98712577801553</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1769,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F33">
-        <v>6789823.2232126696</v>
+        <v>4714773.70259926</v>
       </c>
       <c r="G33">
-        <v>0.38249216529712599</v>
+        <v>0.82696085046207402</v>
       </c>
       <c r="H33">
-        <v>12404463.945891401</v>
+        <v>13827266.9473582</v>
       </c>
       <c r="I33">
-        <v>7201772.2914133901</v>
+        <v>4830001.4547615498</v>
       </c>
       <c r="J33">
-        <v>1.82692001516089</v>
+        <v>2.9327530480911799</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1799,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F34">
-        <v>7763562.4919387698</v>
+        <v>4946178.7861643704</v>
       </c>
       <c r="G34">
-        <v>0.32697542773927402</v>
+        <v>0.81320534450290105</v>
       </c>
       <c r="H34">
-        <v>14138694.497384099</v>
+        <v>14277130.221988</v>
       </c>
       <c r="I34">
-        <v>8723167.3847636096</v>
+        <v>5064506.25694618</v>
       </c>
       <c r="J34">
-        <v>1.8211606478423901</v>
+        <v>2.8864969988396898</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1829,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F35">
-        <v>9901124.3577392697</v>
+        <v>5184066.2480595103</v>
       </c>
       <c r="G35">
-        <v>0.25973061982573598</v>
+        <v>0.79878198528651501</v>
       </c>
       <c r="H35">
-        <v>16846458.053694401</v>
+        <v>14762005.1675165</v>
       </c>
       <c r="I35">
-        <v>11438593.698243501</v>
+        <v>5306526.8123091999</v>
       </c>
       <c r="J35">
-        <v>1.70146919127687</v>
+        <v>2.8475726314342902</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1859,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F36">
-        <v>13066222.066834999</v>
+        <v>5430705.6371931704</v>
       </c>
       <c r="G36">
-        <v>0.17155324088619001</v>
+        <v>0.78366936847409796</v>
       </c>
       <c r="H36">
-        <v>22254322.409145199</v>
+        <v>15287309.5205836</v>
       </c>
       <c r="I36">
-        <v>13241197.2933926</v>
+        <v>5559046.4564849604</v>
       </c>
       <c r="J36">
-        <v>1.70319487111977</v>
+        <v>2.8149766424248202</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1889,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F37">
-        <v>13420956.736461099</v>
+        <v>5689909.9829840604</v>
       </c>
       <c r="G37">
-        <v>0.16134591905840301</v>
+        <v>0.76783759339582902</v>
       </c>
       <c r="H37">
-        <v>23255780.755339999</v>
+        <v>15859560.28906</v>
       </c>
       <c r="I37">
-        <v>13616618.951466501</v>
+        <v>5827001.2212000797</v>
       </c>
       <c r="J37">
-        <v>1.73279604517018</v>
+        <v>2.7873130394837</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1919,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F38">
-        <v>13824699.784191299</v>
+        <v>5967922.4084546203</v>
       </c>
       <c r="G38">
-        <v>0.15084919366686</v>
+        <v>0.751242701909138</v>
       </c>
       <c r="H38">
-        <v>24460675.980824102</v>
+        <v>16486595.2308012</v>
       </c>
       <c r="I38">
-        <v>14072609.592764201</v>
+        <v>6118410.6887478596</v>
       </c>
       <c r="J38">
-        <v>1.76934590715635</v>
+        <v>2.7625351173207302</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1949,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F39">
-        <v>14351018.9680306</v>
+        <v>6274835.6695525004</v>
       </c>
       <c r="G39">
-        <v>0.14000095601226101</v>
+        <v>0.733817896662595</v>
       </c>
       <c r="H39">
-        <v>25944685.464832701</v>
+        <v>17177807.533604801</v>
       </c>
       <c r="I39">
-        <v>14726470.316466101</v>
+        <v>6446203.6965373</v>
       </c>
       <c r="J39">
-        <v>1.80786364526652</v>
+        <v>2.7375709003754398</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1979,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F40">
-        <v>15176297.564691501</v>
+        <v>6626900.7741454402</v>
       </c>
       <c r="G40">
-        <v>0.12864867278765099</v>
+        <v>0.71545955988107202</v>
       </c>
       <c r="H40">
-        <v>27814387.9895605</v>
+        <v>17944350.664823901</v>
       </c>
       <c r="I40">
-        <v>15865470.026667099</v>
+        <v>6831214.5560110603</v>
       </c>
       <c r="J40">
-        <v>1.8327518863541701</v>
+        <v>2.7078043381655799</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2009,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.87</v>
       </c>
       <c r="F41">
-        <v>16736304.956772899</v>
+        <v>7050345.53842967</v>
       </c>
       <c r="G41">
-        <v>0.116418361968846</v>
+        <v>0.69600473912921401</v>
       </c>
       <c r="H41">
-        <v>30204171.582139101</v>
+        <v>18799207.2885787</v>
       </c>
       <c r="I41">
-        <v>18002928.567282598</v>
+        <v>7306959.8303855797</v>
       </c>
       <c r="J41">
-        <v>1.8047096811483501</v>
+        <v>2.66642353713147</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2039,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.88</v>
       </c>
       <c r="F42">
-        <v>19427683.131600101</v>
+        <v>7586082.2322560996</v>
       </c>
       <c r="G42">
-        <v>0.10254033555951</v>
+        <v>0.67519502914636897</v>
       </c>
       <c r="H42">
-        <v>33254482.335853301</v>
+        <v>19756894.576761499</v>
       </c>
       <c r="I42">
-        <v>20977918.116857301</v>
+        <v>7912068.9568718802</v>
       </c>
       <c r="J42">
-        <v>1.71170602848485</v>
+        <v>2.6043607189960198</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2069,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F43">
-        <v>22456010.734394699</v>
+        <v>8261604.5443323599</v>
       </c>
       <c r="G43">
-        <v>0.086368960966172401</v>
+        <v>0.65266201073943897</v>
       </c>
       <c r="H43">
-        <v>37346670.408851899</v>
+        <v>20833696.905842301</v>
       </c>
       <c r="I43">
-        <v>23484155.3837029</v>
+        <v>8657693.5385550391</v>
       </c>
       <c r="J43">
-        <v>1.6631035160510499</v>
+        <v>2.52174947300457</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2099,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F44">
-        <v>24268915.180675302</v>
+        <v>9076524.0777002908</v>
       </c>
       <c r="G44">
-        <v>0.068265588095590204</v>
+        <v>0.62800550573054703</v>
       </c>
       <c r="H44">
-        <v>44277927.921426497</v>
+        <v>22051297.242571101</v>
       </c>
       <c r="I44">
-        <v>27930030.2668982</v>
+        <v>9538875.9469018597</v>
       </c>
       <c r="J44">
-        <v>1.8244708340603499</v>
+        <v>2.4294869989655998</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2129,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F45">
-        <v>35253069.361937203</v>
+        <v>10021691.920688501</v>
       </c>
       <c r="G45">
-        <v>0.046734996769355198</v>
+        <v>0.60083945492075497</v>
       </c>
       <c r="H45">
-        <v>60625825.575954698</v>
+        <v>23441566.275423199</v>
       </c>
       <c r="I45">
-        <v>35720125.720089197</v>
+        <v>10541979.533475701</v>
       </c>
       <c r="J45">
-        <v>1.71973183252555</v>
+        <v>2.3390827078839802</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2159,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F46">
-        <v>36064475.122289397</v>
+        <v>11079082.235231901</v>
       </c>
       <c r="G46">
-        <v>0.043981417837819399</v>
+        <v>0.57081663533107296</v>
       </c>
       <c r="H46">
-        <v>63393125.559939399</v>
+        <v>25054014.618166599</v>
       </c>
       <c r="I46">
-        <v>36209515.568379201</v>
+        <v>11646211.7911573</v>
       </c>
       <c r="J46">
-        <v>1.7577720275973101</v>
+        <v>2.2613799668797498</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2189,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F47">
-        <v>36311203.017957099</v>
+        <v>12227149.635498</v>
       </c>
       <c r="G47">
-        <v>0.041190113015111801</v>
+        <v>0.53764903958695098</v>
       </c>
       <c r="H47">
-        <v>66791076.808883898</v>
+        <v>26969415.022025101</v>
       </c>
       <c r="I47">
-        <v>36613434.364638999</v>
+        <v>12838553.3472306</v>
       </c>
       <c r="J47">
-        <v>1.8394068843120801</v>
+        <v>2.2056992697404501</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2219,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F48">
-        <v>37257151.669309601</v>
+        <v>13470431.1367043</v>
       </c>
       <c r="G48">
-        <v>0.038367671059904997</v>
+        <v>0.50108573857574901</v>
       </c>
       <c r="H48">
-        <v>71102168.586632594</v>
+        <v>29324558.634490799</v>
       </c>
       <c r="I48">
-        <v>39258132.463286698</v>
+        <v>14178800.308684001</v>
       </c>
       <c r="J48">
-        <v>1.9084166502508799</v>
+        <v>2.1769576887993698</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2249,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F49">
-        <v>41902055.914471298</v>
+        <v>14959765.5066729</v>
       </c>
       <c r="G49">
-        <v>0.035341355663104701</v>
+        <v>0.46070550805889199</v>
       </c>
       <c r="H49">
-        <v>76409507.940522507</v>
+        <v>32353710.2996522</v>
       </c>
       <c r="I49">
-        <v>44683212.8867523</v>
+        <v>16057080.0429936</v>
       </c>
       <c r="J49">
-        <v>1.82352646601604</v>
+        <v>2.16271506964602</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2279,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F50">
-        <v>46982619.162220001</v>
+        <v>17439936.4577462</v>
       </c>
       <c r="G50">
-        <v>0.0318968338111255</v>
+        <v>0.41497606837092399</v>
       </c>
       <c r="H50">
-        <v>82754766.9512752</v>
+        <v>36427867.863816798</v>
       </c>
       <c r="I50">
-        <v>48225432.676919103</v>
+        <v>19492844.022466801</v>
       </c>
       <c r="J50">
-        <v>1.76139109370515</v>
+        <v>2.0887615016301799</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2309,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F51">
-        <v>49765298.643584602</v>
+        <v>21866179.991294298</v>
       </c>
       <c r="G51">
-        <v>0.0281792507201825</v>
+        <v>0.359461813432566</v>
       </c>
       <c r="H51">
-        <v>91387100.519861802</v>
+        <v>42072875.810933501</v>
       </c>
       <c r="I51">
-        <v>54610909.5536265</v>
+        <v>24767026.031805702</v>
       </c>
       <c r="J51">
-        <v>1.8363619431759</v>
+        <v>1.9241072664582499</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2339,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F52">
-        <v>61338900.603900798</v>
+        <v>27922633.8621663</v>
       </c>
       <c r="G52">
-        <v>0.0239694265119079</v>
+        <v>0.28892705741595198</v>
       </c>
       <c r="H52">
-        <v>103645830.84195399</v>
+        <v>50725800.700497396</v>
       </c>
       <c r="I52">
-        <v>66063605.949138202</v>
+        <v>33727565.383963101</v>
       </c>
       <c r="J52">
-        <v>1.6897242992868799</v>
+        <v>1.8166552965917799</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2369,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F53">
-        <v>76907335.151181594</v>
+        <v>39759977.178836502</v>
       </c>
       <c r="G53">
-        <v>0.0188767413710904</v>
+        <v>0.192873312717773</v>
       </c>
       <c r="H53">
-        <v>122436943.288362</v>
+        <v>67724036.017031595</v>
       </c>
       <c r="I53">
-        <v>92443552.306321397</v>
+        <v>40997354.6202733</v>
       </c>
       <c r="J53">
-        <v>1.5920060556991</v>
+        <v>1.7033218030386501</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2399,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F54">
-        <v>110181654.346481</v>
+        <v>42550802.634656899</v>
       </c>
       <c r="G54">
-        <v>0.0117504893533419</v>
+        <v>0.18119755317460501</v>
       </c>
       <c r="H54">
-        <v>152430334.27040201</v>
+        <v>70693667.2833381</v>
       </c>
       <c r="I54">
-        <v>112507914.79075199</v>
+        <v>44624386.566111803</v>
       </c>
       <c r="J54">
-        <v>1.3834456849873</v>
+        <v>1.6613944486621599</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2429,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F55">
-        <v>114911711.56903499</v>
+        <v>46789706.6312778</v>
       </c>
       <c r="G55">
-        <v>0.010883192787184401</v>
+        <v>0.168488840328784</v>
       </c>
       <c r="H55">
-        <v>156866158.65700701</v>
+        <v>73952327.372991398</v>
       </c>
       <c r="I55">
-        <v>117488006.130163</v>
+        <v>48315833.232035197</v>
       </c>
       <c r="J55">
-        <v>1.36510157681158</v>
+        <v>1.5805255620806999</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2459,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F56">
-        <v>120160479.85131399</v>
+        <v>49300099.440513097</v>
       </c>
       <c r="G56">
-        <v>0.0099775058897701996</v>
+        <v>0.154728829319047</v>
       </c>
       <c r="H56">
-        <v>161788427.72283599</v>
+        <v>77614683.678842202</v>
       </c>
       <c r="I56">
-        <v>123049775.486085</v>
+        <v>50084969.807942197</v>
       </c>
       <c r="J56">
-        <v>1.34643626525986</v>
+        <v>1.57433117903736</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2489,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F57">
-        <v>126061655.17282601</v>
+        <v>50869840.175370798</v>
       </c>
       <c r="G57">
-        <v>0.0090289446445884908</v>
+        <v>0.14046498059952001</v>
       </c>
       <c r="H57">
-        <v>167322520.89954999</v>
+        <v>82202969.323992297</v>
       </c>
       <c r="I57">
-        <v>129354619.098217</v>
+        <v>51654710.542799398</v>
       </c>
       <c r="J57">
-        <v>1.3273070282169199</v>
+        <v>1.6159470727763701</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2519,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.995</v>
       </c>
       <c r="F58">
-        <v>132809380.529204</v>
+        <v>52439580.910228603</v>
       </c>
       <c r="G58">
-        <v>0.0080317808702074396</v>
+        <v>0.12575408070961699</v>
       </c>
       <c r="H58">
-        <v>173650504.53307101</v>
+        <v>88312621.080230802</v>
       </c>
       <c r="I58">
-        <v>136643641.712506</v>
+        <v>57829616.943485901</v>
       </c>
       <c r="J58">
-        <v>1.30751686244697</v>
+        <v>1.6840832734993301</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2549,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="F59">
-        <v>140701693.81816801</v>
+        <v>64586195.723184101</v>
       </c>
       <c r="G59">
-        <v>0.00697842776641696</v>
+        <v>0.109284610711867</v>
       </c>
       <c r="H59">
-        <v>181051877.097231</v>
+        <v>95933372.114417106</v>
       </c>
       <c r="I59">
-        <v>145301573.264743</v>
+        <v>65018103.887318</v>
       </c>
       <c r="J59">
-        <v>1.28677823403611</v>
+        <v>1.4853541231254199</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2579,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="F60">
-        <v>150232108.466741</v>
+        <v>65308858.498765603</v>
       </c>
       <c r="G60">
-        <v>0.0058583327421320702</v>
+        <v>0.090767909964408006</v>
       </c>
       <c r="H60">
-        <v>189989453.05530399</v>
+        <v>106238461.52345</v>
       </c>
       <c r="I60">
-        <v>156002333.86774799</v>
+        <v>71488737.047286496</v>
       </c>
       <c r="J60">
-        <v>1.2646394635229701</v>
+        <v>1.62670828989391</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2609,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.998</v>
       </c>
       <c r="F61">
-        <v>162312615.16061601</v>
+        <v>84896151.317472696</v>
       </c>
       <c r="G61">
-        <v>0.0046557481175064702</v>
+        <v>0.070408418198659797</v>
       </c>
       <c r="H61">
-        <v>201318492.78440699</v>
+        <v>123613323.76153199</v>
       </c>
       <c r="I61">
-        <v>170109017.428211</v>
+        <v>94230954.597539201</v>
       </c>
       <c r="J61">
-        <v>1.2403132842459199</v>
+        <v>1.45605332919363</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2639,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.999</v>
       </c>
       <c r="F62">
-        <v>178952431.28670701</v>
+        <v>106708051.245381</v>
       </c>
       <c r="G62">
-        <v>0.0033444184482654799</v>
+        <v>0.043572102109620398</v>
       </c>
       <c r="H62">
-        <v>216923230.46259099</v>
+        <v>152995692.92552501</v>
       </c>
       <c r="I62">
-        <v>191199755.62877199</v>
+        <v>108502499.824361</v>
       </c>
       <c r="J62">
-        <v>1.2121837568948699</v>
+        <v>1.4337783432451801</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2669,539 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F63">
+        <v>110377980.991266</v>
+      </c>
+      <c r="G63">
+        <v>0.040482026885217202</v>
+      </c>
+      <c r="H63">
+        <v>157939381.04787499</v>
+      </c>
+      <c r="I63">
+        <v>112437029.84938</v>
+      </c>
+      <c r="J63">
+        <v>1.4308957242148901</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F64">
+        <v>114600295.082442</v>
+      </c>
+      <c r="G64">
+        <v>0.037279899000555901</v>
+      </c>
+      <c r="H64">
+        <v>163627174.947687</v>
+      </c>
+      <c r="I64">
+        <v>117003338.57797</v>
+      </c>
+      <c r="J64">
+        <v>1.42780762326987</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F65">
+        <v>119544729.848141</v>
+      </c>
+      <c r="G65">
+        <v>0.033947725840513497</v>
+      </c>
+      <c r="H65">
+        <v>170287723.00050199</v>
+      </c>
+      <c r="I65">
+        <v>122410841.217327</v>
+      </c>
+      <c r="J65">
+        <v>1.4244686755896401</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F66">
+        <v>125468269.394857</v>
+      </c>
+      <c r="G66">
+        <v>0.030461550791493201</v>
+      </c>
+      <c r="H66">
+        <v>178267203.29769701</v>
+      </c>
+      <c r="I66">
+        <v>128986854.74866401</v>
+      </c>
+      <c r="J66">
+        <v>1.42081503281661</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F67">
+        <v>132784888.588934</v>
+      </c>
+      <c r="G67">
+        <v>0.026788095481451901</v>
+      </c>
+      <c r="H67">
+        <v>188123273.00749999</v>
+      </c>
+      <c r="I67">
+        <v>137282139.804214</v>
+      </c>
+      <c r="J67">
+        <v>1.4167521244821699</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F68">
+        <v>142220323.35137501</v>
+      </c>
+      <c r="G68">
+        <v>0.022878396261169099</v>
+      </c>
+      <c r="H68">
+        <v>200833556.308319</v>
+      </c>
+      <c r="I68">
+        <v>148325663.013823</v>
+      </c>
+      <c r="J68">
+        <v>1.41212979675297</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F69">
+        <v>155213340.89390001</v>
+      </c>
+      <c r="G69">
+        <v>0.018654185232255999</v>
+      </c>
+      <c r="H69">
+        <v>218336187.40650401</v>
+      </c>
+      <c r="I69">
+        <v>164378566.21436599</v>
+      </c>
+      <c r="J69">
+        <v>1.4066844135244301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F70">
+        <v>175240967.448147</v>
+      </c>
+      <c r="G70">
+        <v>0.0139727987600166</v>
+      </c>
+      <c r="H70">
+        <v>245314998.00257301</v>
+      </c>
+      <c r="I70">
+        <v>192135984.54197001</v>
+      </c>
+      <c r="J70">
+        <v>1.39987242466669</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F71">
+        <v>214718223.80530301</v>
+      </c>
+      <c r="G71">
+        <v>0.0085009004488206703</v>
+      </c>
+      <c r="H71">
+        <v>298494011.463175</v>
+      </c>
+      <c r="I71">
+        <v>217965987.95269501</v>
+      </c>
+      <c r="J71">
+        <v>1.3901661730111701</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F72">
+        <v>221360412.6045</v>
+      </c>
+      <c r="G72">
+        <v>0.0078801485765390093</v>
+      </c>
+      <c r="H72">
+        <v>307441569.63096398</v>
+      </c>
+      <c r="I72">
+        <v>225087075.56790099</v>
+      </c>
+      <c r="J72">
+        <v>1.3888733130447499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F73">
+        <v>229002359.26425099</v>
+      </c>
+      <c r="G73">
+        <v>0.0072391163453290096</v>
+      </c>
+      <c r="H73">
+        <v>317735881.38878697</v>
+      </c>
+      <c r="I73">
+        <v>233351616.52403</v>
+      </c>
+      <c r="J73">
+        <v>1.38747863738008</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F74">
+        <v>237951268.77846199</v>
+      </c>
+      <c r="G74">
+        <v>0.0065745472801301804</v>
+      </c>
+      <c r="H74">
+        <v>329790776.36954403</v>
+      </c>
+      <c r="I74">
+        <v>243138630.43164799</v>
+      </c>
+      <c r="J74">
+        <v>1.3859593103350401</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F75">
+        <v>248672255.48751301</v>
+      </c>
+      <c r="G75">
+        <v>0.0058821054845909103</v>
+      </c>
+      <c r="H75">
+        <v>344232800.69244802</v>
+      </c>
+      <c r="I75">
+        <v>255040526.77459201</v>
+      </c>
+      <c r="J75">
+        <v>1.3842830999284299</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F76">
+        <v>261914570.57921699</v>
+      </c>
+      <c r="G76">
+        <v>0.0051557679215984403</v>
+      </c>
+      <c r="H76">
+        <v>362071255.47613603</v>
+      </c>
+      <c r="I76">
+        <v>270054124.66271102</v>
+      </c>
+      <c r="J76">
+        <v>1.38240211178563</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F77">
+        <v>278991720.12544799</v>
+      </c>
+      <c r="G77">
+        <v>0.0043866726830414596</v>
+      </c>
+      <c r="H77">
+        <v>385075538.179362</v>
+      </c>
+      <c r="I77">
+        <v>290041746.01943099</v>
+      </c>
+      <c r="J77">
+        <v>1.38024002291614</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F78">
+        <v>302507722.21928197</v>
+      </c>
+      <c r="G78">
+        <v>0.0035606540983414798</v>
+      </c>
+      <c r="H78">
+        <v>416753468.89910698</v>
+      </c>
+      <c r="I78">
+        <v>319095820.95181203</v>
+      </c>
+      <c r="J78">
+        <v>1.3776622488896699</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F79">
+        <v>338755630.48604202</v>
+      </c>
+      <c r="G79">
+        <v>0.0026518915425141698</v>
+      </c>
+      <c r="H79">
+        <v>465582292.87302101</v>
+      </c>
+      <c r="I79">
+        <v>369333843.44187599</v>
+      </c>
+      <c r="J79">
+        <v>1.37438982845838</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>206382170.90690899</v>
-      </c>
-      <c r="G63">
-        <v>0.0018705053301049099</v>
-      </c>
-      <c r="H63">
-        <v>242646705.29612499</v>
-      </c>
-      <c r="I63">
-        <v>242646705.29612499</v>
-      </c>
-      <c r="J63">
-        <v>1.1757154420358</v>
+      <c r="F80">
+        <v>410205333.38333398</v>
+      </c>
+      <c r="G80">
+        <v>0.00160005461618011</v>
+      </c>
+      <c r="H80">
+        <v>561830742.30312598</v>
+      </c>
+      <c r="I80">
+        <v>561830742.30311298</v>
+      </c>
+      <c r="J80">
+        <v>1.3696329534996501</v>
       </c>
     </row>
   </sheetData>
